--- a/excel_classificado.xlsx
+++ b/excel_classificado.xlsx
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2177,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="D85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2653,7 +2653,7 @@
         <v>0</v>
       </c>
       <c r="D119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2835,7 +2835,7 @@
         <v>0</v>
       </c>
       <c r="D132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3801,7 +3801,7 @@
         <v>0</v>
       </c>
       <c r="D201">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/excel_classificado.xlsx
+++ b/excel_classificado.xlsx
@@ -1883,7 +1883,7 @@
         <v>0</v>
       </c>
       <c r="D64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -3353,7 +3353,7 @@
         <v>0</v>
       </c>
       <c r="D169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:4">
